--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OTH\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D746A943-DE89-436A-8B8D-3911356CDA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E33BCB-4043-4387-AD28-E2CCF67DF033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3015" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>Zoom Meeting Prof. Münch (Zwischenstand)</t>
+  </si>
+  <si>
+    <t>Donnerstag 12.11.2020</t>
+  </si>
+  <si>
+    <t>Interne Absprache, Arbeitsaufteilung</t>
+  </si>
+  <si>
+    <t>Dienstag 17.11.2020</t>
+  </si>
+  <si>
+    <t>Vorbereitung Stresstest und Input-Auslesen verstehen</t>
   </si>
 </sst>
 </file>
@@ -144,10 +156,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -467,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,29 +494,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -561,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C35" si="0">C6+B7</f>
+        <f t="shared" ref="C7:C9" si="0">C6+B7</f>
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -581,6 +593,36 @@
       </c>
       <c r="D8" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>B10+C9</f>
+        <v>15.5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OTH\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E33BCB-4043-4387-AD28-E2CCF67DF033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA44F52-3450-4A5F-B450-C0EB7936D5DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Vorbereitung Stresstest und Input-Auslesen verstehen</t>
+  </si>
+  <si>
+    <t>Donnerstag 19.11.2020</t>
+  </si>
+  <si>
+    <t>Stresstest durchgeführt (Auslesen klappt ohne Probleme). Tieferes einlesen in rp.h library (Abtastraten , …)</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +631,21 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="C11">
+        <f>B11+C10</f>
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA44F52-3450-4A5F-B450-C0EB7936D5DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE58E3D6-FB67-40D8-8215-C2C82638DCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Projekt Redpitaya Oszilloskop</t>
   </si>
   <si>
-    <t>Dienstag 27.10.2020</t>
-  </si>
-  <si>
     <t>Absprache mit Prof. Münch bzgl. Themenfindung</t>
   </si>
   <si>
@@ -67,38 +64,26 @@
 Redpitaya, Connection RP und VM</t>
   </si>
   <si>
-    <t>Donnerstag 29.10.2020</t>
-  </si>
-  <si>
-    <t>Donnerstag 05.11.2020</t>
-  </si>
-  <si>
     <t>Introduction zur Programmierung, Pinout, 
 HF In-Output Ansteuerung</t>
   </si>
   <si>
-    <t>Dienstag 10.11.2020</t>
-  </si>
-  <si>
     <t>Zoom Meeting Prof. Münch (Zwischenstand)</t>
   </si>
   <si>
-    <t>Donnerstag 12.11.2020</t>
-  </si>
-  <si>
     <t>Interne Absprache, Arbeitsaufteilung</t>
   </si>
   <si>
-    <t>Dienstag 17.11.2020</t>
-  </si>
-  <si>
     <t>Vorbereitung Stresstest und Input-Auslesen verstehen</t>
   </si>
   <si>
-    <t>Donnerstag 19.11.2020</t>
-  </si>
-  <si>
-    <t>Stresstest durchgeführt (Auslesen klappt ohne Probleme). Tieferes einlesen in rp.h library (Abtastraten , …)</t>
+    <t>Stresstest durchgeführt. Tieferes einlesen in rp.h library (Abtastraten , Buffer, …)</t>
+  </si>
+  <si>
+    <t>Zoom Meeting</t>
+  </si>
+  <si>
+    <t>recherchen buffer(auslesen und schreiben, ..), rp.h</t>
   </si>
 </sst>
 </file>
@@ -151,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -165,6 +150,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,37 +471,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -542,8 +528,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="5">
+        <v>44131</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -553,12 +539,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
+      <c r="A6" s="5">
+        <v>44133</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -568,12 +554,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="A7" s="5">
+        <v>44140</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -583,12 +569,12 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="5">
+        <v>44145</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -598,12 +584,12 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
+      <c r="A9" s="5">
+        <v>44147</v>
       </c>
       <c r="B9">
         <v>2.5</v>
@@ -613,12 +599,12 @@
         <v>13.5</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
+      <c r="A10" s="5">
+        <v>44152</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -628,22 +614,52 @@
         <v>15.5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44154</v>
       </c>
       <c r="B11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <f>B11+C10</f>
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>44159</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>B12+C11</f>
+        <v>19.5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>44160</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>B13+C12</f>
+        <v>21.5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OTH\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE58E3D6-FB67-40D8-8215-C2C82638DCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592BD418-D564-428D-8753-A4EB26ECB9E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>recherchen buffer(auslesen und schreiben, ..), rp.h</t>
+  </si>
+  <si>
+    <t>read buffer, tried to send signal via websocket</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,6 +665,21 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>44161</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f>B14+C13</f>
+        <v>25.5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OTH\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592BD418-D564-428D-8753-A4EB26ECB9E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A57AF2-D4D5-444D-91AD-3946EBA6F9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>read buffer, tried to send signal via websocket</t>
+  </si>
+  <si>
+    <t>versucht signal in webapp zu lesen und zu senden</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,6 +683,21 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44168</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>B15+C14</f>
+        <v>28.5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OTH\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A57AF2-D4D5-444D-91AD-3946EBA6F9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D95E5D-2891-4B11-90F5-EE42EF186AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="6615" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>versucht signal in webapp zu lesen und zu senden</t>
+  </si>
+  <si>
+    <t>zweiwöchentliches Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redpitaya abgeholt, upgedated und in HomeOffice Arbeitsplatz integriert </t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <f>B10+C9</f>
+        <f t="shared" ref="C10:C16" si="1">B10+C9</f>
         <v>15.5</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -631,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f>B11+C10</f>
+        <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -646,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <f>B12+C11</f>
+        <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -661,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <f>B13+C12</f>
+        <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -676,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <f>B14+C13</f>
+        <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -691,11 +697,41 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <f>B15+C14</f>
+        <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44173</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>29.5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>44182</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <f>C16+B17</f>
+        <v>33.5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D95E5D-2891-4B11-90F5-EE42EF186AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD5152-91C0-419D-8DAA-AC4FFD89619F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="360" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t xml:space="preserve">redpitaya abgeholt, upgedated und in HomeOffice Arbeitsplatz integriert </t>
+  </si>
+  <si>
+    <t>Interne Absprache, Planung weiteres vorghen
+Quellcodes auf neuen Redpitaya geschrieben und Funktion getestet</t>
   </si>
 </sst>
 </file>
@@ -483,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,14 +728,29 @@
         <v>44182</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <f>C16+B17</f>
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>44183</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f>B18+C17</f>
+        <v>36.5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD5152-91C0-419D-8DAA-AC4FFD89619F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63592005-41E9-43E3-AAB7-1ECED92285F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -95,11 +95,11 @@
     <t>zweiwöchentliches Meeting</t>
   </si>
   <si>
-    <t xml:space="preserve">redpitaya abgeholt, upgedated und in HomeOffice Arbeitsplatz integriert </t>
+    <t>redpitaya abgeholt, upgedated und in HomeOffice Arbeitsplatz integriert, Funktionstests</t>
   </si>
   <si>
     <t>Interne Absprache, Planung weiteres vorghen
-Quellcodes auf neuen Redpitaya geschrieben und Funktion getestet</t>
+Quellcodes auf neuen Redpitaya geschrieben und Datenaquirierung debugged</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,16 +723,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>44182</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <f>C16+B17</f>
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
@@ -747,7 +747,7 @@
       </c>
       <c r="C18">
         <f>B18+C17</f>
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63592005-41E9-43E3-AAB7-1ECED92285F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D888FB7E-33F0-45F0-AD29-0A74EAC1C8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -100,6 +100,9 @@
   <si>
     <t>Interne Absprache, Planung weiteres vorghen
 Quellcodes auf neuen Redpitaya geschrieben und Datenaquirierung debugged</t>
+  </si>
+  <si>
+    <t>Versucht Redpitaya per VPN, über Florians wireguard verfügbar zu machen. --&gt; keine kernel headers für 4.9.0-xilinx und kein module support..</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +756,21 @@
         <v>20</v>
       </c>
     </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>44185</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f>C18+B19</f>
+        <v>41.5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D888FB7E-33F0-45F0-AD29-0A74EAC1C8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830D7F6E-60EE-4FEA-9636-71638F41D612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,6 +771,21 @@
         <v>21</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>44187</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f>C19+B20</f>
+        <v>42.5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830D7F6E-60EE-4FEA-9636-71638F41D612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A3DBB6-90AB-4E63-AFD0-B6593B45AF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -103,6 +103,13 @@
   </si>
   <si>
     <t>Versucht Redpitaya per VPN, über Florians wireguard verfügbar zu machen. --&gt; keine kernel headers für 4.9.0-xilinx und kein module support..</t>
+  </si>
+  <si>
+    <t>Raspberry für VPN eingerichtet und über wireguard verbunden</t>
+  </si>
+  <si>
+    <t>Versucht VPN verbindung auf Redpitaya weiterzugeben
+Entweder fehler beim bridgen oder Redpitaya bekam immer eigene IP-Adresse ohne VPN</t>
   </si>
 </sst>
 </file>
@@ -490,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +793,36 @@
         <v>18</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>44194</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f>C20+B21</f>
+        <v>45.5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>44195</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f>C21+B22</f>
+        <v>49.5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A3DBB6-90AB-4E63-AFD0-B6593B45AF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC28010C-864E-4CEB-B7DA-C0C6FCC8344E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -108,8 +108,12 @@
     <t>Raspberry für VPN eingerichtet und über wireguard verbunden</t>
   </si>
   <si>
-    <t>Versucht VPN verbindung auf Redpitaya weiterzugeben
-Entweder fehler beim bridgen oder Redpitaya bekam immer eigene IP-Adresse ohne VPN</t>
+    <t xml:space="preserve">Versucht VPN verbindung auf Redpitaya weiterzugeben
+Entweder Fehler beim bridgen oder Zugriff von Raspberry auf RP nicht möglich </t>
+  </si>
+  <si>
+    <t>Evaluierung der Möglichkeiten ohne Wireguard
+ssh und port forwarding</t>
   </si>
 </sst>
 </file>
@@ -497,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,14 +817,29 @@
         <v>44195</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <f>C21+B22</f>
-        <v>49.5</v>
+        <v>50.5</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44203</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <f>C22+B23</f>
+        <v>55.5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OTH\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC28010C-864E-4CEB-B7DA-C0C6FCC8344E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E36B56E-5806-4B1C-A04E-F6F215043525}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
   </si>
   <si>
     <t>Evaluierung der Möglichkeiten ohne Wireguard
-ssh und port forwarding</t>
+ssh und port forwarding, openVPN nur begrenzte Möglichkeiten, anderweitig viel Konfigurationsaufwand</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,17 +817,17 @@
         <v>44195</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <f>C21+B22</f>
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>44203</v>
       </c>
@@ -836,7 +836,7 @@
       </c>
       <c r="C23">
         <f>C22+B23</f>
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>24</v>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OTH\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E36B56E-5806-4B1C-A04E-F6F215043525}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7259998F-CD98-4E12-8D8F-51F82E6B50A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="33015" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -114,6 +114,9 @@
   <si>
     <t>Evaluierung der Möglichkeiten ohne Wireguard
 ssh und port forwarding, openVPN nur begrenzte Möglichkeiten, anderweitig viel Konfigurationsaufwand</t>
+  </si>
+  <si>
+    <t>teaminterne Absprache, design, future directions</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f>C18+B19</f>
+        <f t="shared" ref="C19:C25" si="2">C18+B19</f>
         <v>41.5</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -790,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f>C19+B20</f>
+        <f t="shared" si="2"/>
         <v>42.5</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -805,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <f>C20+B21</f>
+        <f t="shared" si="2"/>
         <v>45.5</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -820,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <f>C21+B22</f>
+        <f t="shared" si="2"/>
         <v>49.5</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -835,11 +838,41 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <f>C22+B23</f>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>44215</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>44217</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7259998F-CD98-4E12-8D8F-51F82E6B50A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E35218-3F6C-4594-8DB0-1739B3514D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33015" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>teaminterne Absprache, design, future directions</t>
+  </si>
+  <si>
+    <t>libsigrok integration, WebApp tests, vpn &amp; vnc connection. Wiederkehrende Fehler &amp; VPN/VNC dokumentiert</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C25" si="2">C18+B19</f>
+        <f t="shared" ref="C19:C26" si="2">C18+B19</f>
         <v>41.5</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -873,6 +876,21 @@
       </c>
       <c r="D25" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>44220</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E35218-3F6C-4594-8DB0-1739B3514D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29449341-E1C7-439B-B222-F5D769CB1497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>libsigrok integration, WebApp tests, vpn &amp; vnc connection. Wiederkehrende Fehler &amp; VPN/VNC dokumentiert</t>
+  </si>
+  <si>
+    <t>Initiale Dokumentation erstellt &amp; Klassendiagramm reviewed</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C26" si="2">C18+B19</f>
+        <f t="shared" ref="C19:C27" si="2">C18+B19</f>
         <v>41.5</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -891,6 +894,21 @@
       </c>
       <c r="D26" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>44221</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>73.5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29449341-E1C7-439B-B222-F5D769CB1497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185C54F0-1CEC-485A-BE30-718EFAE9A1B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>Initiale Dokumentation erstellt &amp; Klassendiagramm reviewed</t>
+  </si>
+  <si>
+    <t>Klassendiagramm besprochen, StateChart, Arbeitsaufteilung, loguru in App integriert.
+NEVER USE WINDOWS (daraus resultierte Fehler gefixt)</t>
   </si>
 </sst>
 </file>
@@ -510,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C27" si="2">C18+B19</f>
+        <f t="shared" ref="C19:C28" si="2">C18+B19</f>
         <v>41.5</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -909,6 +913,21 @@
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>44224</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>80.5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185C54F0-1CEC-485A-BE30-718EFAE9A1B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B03B0A2-7BBC-4858-9966-E10AE5D48CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="33990" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -127,6 +127,9 @@
   <si>
     <t>Klassendiagramm besprochen, StateChart, Arbeitsaufteilung, loguru in App integriert.
 NEVER USE WINDOWS (daraus resultierte Fehler gefixt)</t>
+  </si>
+  <si>
+    <t>started implementation -&gt; class diagram</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C28" si="2">C18+B19</f>
+        <f t="shared" ref="C19:C29" si="2">C18+B19</f>
         <v>41.5</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -928,6 +931,21 @@
       </c>
       <c r="D28" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>44243</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>85.5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B03B0A2-7BBC-4858-9966-E10AE5D48CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029FF9B3-CB79-4AB4-BA06-1B8644A21628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33990" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>started implementation -&gt; class diagram</t>
+  </si>
+  <si>
+    <t>Absprache Aufteilung, detailierte Umsetzung und Diskussion mit Florian</t>
+  </si>
+  <si>
+    <t>Weitere Implementierung</t>
+  </si>
+  <si>
+    <t>build und linker errors gefixet, die bei Florian und meiner ersten Implementierung entstanden sind</t>
+  </si>
+  <si>
+    <t>Grundstruktur und Funktion fertig implementiert, kurze Teamdiskussion, make file angepasst</t>
   </si>
 </sst>
 </file>
@@ -517,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C29" si="2">C18+B19</f>
+        <f t="shared" ref="C19:C33" si="2">C18+B19</f>
         <v>41.5</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -946,6 +958,66 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>44244</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>88.5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>44246</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>95.5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>44247</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>101.5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>44248</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>107.5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029FF9B3-CB79-4AB4-BA06-1B8644A21628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C62224-8D66-4261-B9E0-F3DD1210FBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33990" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Grundstruktur und Funktion fertig implementiert, kurze Teamdiskussion, make file angepasst</t>
+  </si>
+  <si>
+    <t>lohmann/json.hpp build/linker errors</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C33" si="2">C18+B19</f>
+        <f t="shared" ref="C19:C35" si="2">C18+B19</f>
         <v>41.5</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1019,6 +1022,25 @@
       <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>44249</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>112.5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="D35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C62224-8D66-4261-B9E0-F3DD1210FBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EBD30C-0B28-4D23-B7CF-998EA555C31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33990" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>lohmann/json.hpp build/linker errors</t>
+  </si>
+  <si>
+    <t>mergen, fixen, testen.
+Poster erstellen</t>
   </si>
 </sst>
 </file>
@@ -535,7 +539,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,9 +1042,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="D35" s="1"/>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>44251</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>119.5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OTH\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EBD30C-0B28-4D23-B7CF-998EA555C31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8B4FB7-ED00-4E83-8C20-09A120C474F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33990" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -149,6 +149,18 @@
   <si>
     <t>mergen, fixen, testen.
 Poster erstellen</t>
+  </si>
+  <si>
+    <t>mergen, testen, debuggen, error fixing</t>
+  </si>
+  <si>
+    <t>implementieren, debuggen, testen</t>
+  </si>
+  <si>
+    <t>testen, Akvirierung abgeschlossen, teammeeting, Receive Data Fehler gefixt</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -536,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C35" si="2">C18+B19</f>
+        <f t="shared" ref="C19:C39" si="2">C18+B19</f>
         <v>41.5</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1055,6 +1067,66 @@
       </c>
       <c r="D35" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>44252</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>125.5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>44253</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>131.5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>44254</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>140.5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>44256</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>142.5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OTH\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8B4FB7-ED00-4E83-8C20-09A120C474F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB9AAD-39DC-4709-B068-9ABD975BB339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="2310" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Video, Doku</t>
+  </si>
+  <si>
+    <t>Strukturanpassung, Dokumentation, Präsentation</t>
   </si>
 </sst>
 </file>
@@ -548,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C39" si="2">C18+B19</f>
+        <f t="shared" ref="C19:C41" si="2">C18+B19</f>
         <v>41.5</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1044,11 +1050,11 @@
         <v>44249</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>112.5</v>
+        <v>113.5</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>34</v>
@@ -1063,7 +1069,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>119.5</v>
+        <v>120.5</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>35</v>
@@ -1078,7 +1084,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
-        <v>125.5</v>
+        <v>126.5</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>36</v>
@@ -1093,7 +1099,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>131.5</v>
+        <v>132.5</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>37</v>
@@ -1108,7 +1114,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>140.5</v>
+        <v>141.5</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
@@ -1119,14 +1125,44 @@
         <v>44256</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
-        <v>142.5</v>
+        <v>144.5</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>44257</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>148.5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>44258</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>152.5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\AbgabeCD\Bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB9AAD-39DC-4709-B068-9ABD975BB339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09061902-3524-409E-8511-9FDB81FA60F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -166,7 +166,7 @@
     <t>Video, Doku</t>
   </si>
   <si>
-    <t>Strukturanpassung, Dokumentation, Präsentation</t>
+    <t>Strukturanpassung, Dokumentation, Präsentation, Abgabevorbereitung</t>
   </si>
 </sst>
 </file>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,11 +1155,11 @@
         <v>44258</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>152.5</v>
+        <v>153.5</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>41</v>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB04DC34-C24F-4426-85F0-FA26F2AFA1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5D85C-5A62-4886-8E38-535F8A1A1395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Datum</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Studenliste von Michael Schneider</t>
+  </si>
+  <si>
+    <t>cmake tests and fixes</t>
+  </si>
+  <si>
+    <t>cmake restructure with eclipse and vs code</t>
   </si>
 </sst>
 </file>
@@ -139,23 +145,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +480,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,22 +492,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -528,16 +534,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>44273</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1"/>
@@ -558,10 +564,34 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4">
+        <v>44287</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>C6+B7</f>
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4">
+        <v>44292</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>C7+B8</f>
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5D85C-5A62-4886-8E38-535F8A1A1395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3DFA5E-A74D-4BF6-B3F0-1399AB38F159}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>cmake restructure with eclipse and vs code</t>
+  </si>
+  <si>
+    <t>meetings + build environment</t>
+  </si>
+  <si>
+    <t>build environment + error fixing</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,10 +600,34 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4">
+        <v>44294</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f>C8+B9</f>
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4">
+        <v>44301</v>
+      </c>
+      <c r="B10" s="7">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f>C9+B10</f>
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3DFA5E-A74D-4BF6-B3F0-1399AB38F159}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E3FFD-0F6F-4C18-B168-F08E1BD0D88B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>build environment + error fixing</t>
+  </si>
+  <si>
+    <t>build environment + code restructure</t>
+  </si>
+  <si>
+    <t>testing und bug fixing mit Florian</t>
+  </si>
+  <si>
+    <t>bug fixing, build environment lauffähig, repo anpassungen</t>
   </si>
 </sst>
 </file>
@@ -486,7 +495,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,13 +639,49 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4">
+        <v>44308</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C13" si="0">C10+B11</f>
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4">
+        <v>44315</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4">
+        <v>44318</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E3FFD-0F6F-4C18-B168-F08E1BD0D88B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ECC8AD-C7F2-4572-B6B6-70E76F374C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="7155" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>bug fixing, build environment lauffähig, repo anpassungen</t>
+  </si>
+  <si>
+    <t>Datenaustausch acquireroptions mit frontend (bug)</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C13" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C14" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
@@ -684,7 +687,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4">
+        <v>44328</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ECC8AD-C7F2-4572-B6B6-70E76F374C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D52EB5A-284E-47F6-8720-BF417EEDB9DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7155" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>Datenaustausch acquireroptions mit frontend (bug)</t>
+  </si>
+  <si>
+    <t>meeting + bug fixing</t>
+  </si>
+  <si>
+    <t>frontend bug übergabe an Alex, mit kurzer erläuterung</t>
+  </si>
+  <si>
+    <t>test datenaustausch + implementierung empfang Aquireroptions</t>
   </si>
 </sst>
 </file>
@@ -498,7 +507,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C14" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C17" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
@@ -702,13 +711,49 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4">
+        <v>44336</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4">
+        <v>44337</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4">
+        <v>44253</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D52EB5A-284E-47F6-8720-BF417EEDB9DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2D52EB5A-284E-47F6-8720-BF417EEDB9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7113C59-175E-4D97-A5C2-F92FB6885BCB}"/>
   <bookViews>
     <workbookView xWindow="7155" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,28 +34,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Studenliste von Michael Schneider</t>
+  </si>
+  <si>
+    <t>Projekt Redpitaya Oszilloskop</t>
+  </si>
   <si>
     <t>Datum</t>
   </si>
   <si>
     <t>Zeit (0,5h genau)</t>
-  </si>
-  <si>
-    <t>Tätigkeit</t>
-  </si>
-  <si>
-    <t>Unterschrift</t>
   </si>
   <si>
     <t>Zwischensumme 
 (fortlaufend aufsummiert)</t>
   </si>
   <si>
-    <t>Projekt Redpitaya Oszilloskop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Tätigkeit</t>
+  </si>
+  <si>
+    <t>Unterschrift</t>
   </si>
   <si>
     <t>Research cross build env. 
@@ -64,15 +65,12 @@
     <t>bit research, Anfang Build Envirionment m. Flo</t>
   </si>
   <si>
-    <t>Studenliste von Michael Schneider</t>
+    <t>cmake restructure with eclipse and vs code</t>
   </si>
   <si>
     <t>cmake tests and fixes</t>
   </si>
   <si>
-    <t>cmake restructure with eclipse and vs code</t>
-  </si>
-  <si>
     <t>meetings + build environment</t>
   </si>
   <si>
@@ -82,12 +80,12 @@
     <t>build environment + code restructure</t>
   </si>
   <si>
+    <t>bug fixing, build environment lauffähig, repo anpassungen</t>
+  </si>
+  <si>
     <t>testing und bug fixing mit Florian</t>
   </si>
   <si>
-    <t>bug fixing, build environment lauffähig, repo anpassungen</t>
-  </si>
-  <si>
     <t>Datenaustausch acquireroptions mit frontend (bug)</t>
   </si>
   <si>
@@ -98,13 +96,19 @@
   </si>
   <si>
     <t>test datenaustausch + implementierung empfang Aquireroptions</t>
+  </si>
+  <si>
+    <t>bug fixing, parsing empfangene optionen, testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,9 +162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +185,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,7 +196,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -208,7 +212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,79 +511,79 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="13" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="8">
+        <v>44273</v>
+      </c>
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>44273</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="C5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
         <v>44274</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>7</v>
       </c>
       <c r="C6">
@@ -590,11 +594,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
         <v>44287</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7">
@@ -602,14 +606,14 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
         <v>44292</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
       <c r="C8">
@@ -620,11 +624,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
         <v>44294</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>4</v>
       </c>
       <c r="C9">
@@ -632,14 +636,14 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>44301</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10">
@@ -647,29 +651,29 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>44308</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C18" si="0">C10+B11</f>
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>44308</v>
-      </c>
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:C17" si="0">C10+B11</f>
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
         <v>44315</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>4</v>
       </c>
       <c r="C12">
@@ -677,14 +681,14 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>44318</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>3</v>
       </c>
       <c r="C13">
@@ -695,11 +699,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
         <v>44328</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>4</v>
       </c>
       <c r="C14">
@@ -707,14 +711,14 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
         <v>44336</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>3</v>
       </c>
       <c r="C15">
@@ -722,14 +726,14 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>44337</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>1</v>
       </c>
       <c r="C16">
@@ -737,14 +741,14 @@
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>44253</v>
-      </c>
-      <c r="B17" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>44342</v>
+      </c>
+      <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17">
@@ -752,103 +756,115 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>44350</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3"/>
       <c r="B30"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3"/>
       <c r="E33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2D52EB5A-284E-47F6-8720-BF417EEDB9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7113C59-175E-4D97-A5C2-F92FB6885BCB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C8F89B-A943-4BFF-AD88-EE9821485373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="32400" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Studenliste von Michael Schneider</t>
   </si>
@@ -102,13 +102,19 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Meeting + testing</t>
+  </si>
+  <si>
+    <t>internes Meeting + codeanalyse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,7 +202,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -212,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -511,10 +517,10 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -522,7 +528,7 @@
     <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -531,7 +537,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -540,14 +546,14 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="4"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -564,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44273</v>
       </c>
@@ -579,7 +585,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44274</v>
       </c>
@@ -594,7 +600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44287</v>
       </c>
@@ -609,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44292</v>
       </c>
@@ -624,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44294</v>
       </c>
@@ -639,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44301</v>
       </c>
@@ -654,7 +660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44308</v>
       </c>
@@ -662,14 +668,14 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C18" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C20" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44315</v>
       </c>
@@ -684,7 +690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44318</v>
       </c>
@@ -699,7 +705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44328</v>
       </c>
@@ -714,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44336</v>
       </c>
@@ -729,7 +735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44337</v>
       </c>
@@ -744,7 +750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44342</v>
       </c>
@@ -759,7 +765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44350</v>
       </c>
@@ -774,96 +780,120 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44357</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44364</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="E33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C8F89B-A943-4BFF-AD88-EE9821485373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C91BAC-3769-4613-8FDC-D605F400E126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32400" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Studenliste von Michael Schneider</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>internes Meeting + codeanalyse</t>
+  </si>
+  <si>
+    <t>fixed strange npm error (dokumentiert aber unklar, was und wieso)</t>
+  </si>
+  <si>
+    <t>empfangen und parsen fertig gestellt, minor bugs gefixt</t>
   </si>
 </sst>
 </file>
@@ -516,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C20" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C22" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
@@ -811,10 +817,34 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>44373</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3">
+        <v>44374</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24331"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C91BAC-3769-4613-8FDC-D605F400E126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C9866062-247D-428B-806A-F231CEA3B0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20598741-52C3-44AC-A483-C4A17286CEDF}"/>
   <bookViews>
     <workbookView xWindow="32400" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Studenliste von Michael Schneider</t>
   </si>
@@ -101,26 +101,39 @@
     <t>bug fixing, parsing empfangene optionen, testing</t>
   </si>
   <si>
+    <t>Meeting + testing</t>
+  </si>
+  <si>
+    <t>internes Meeting + codeanalyse</t>
+  </si>
+  <si>
+    <t>fixed strange npm error (dokumentiert aber unklar, was und wieso)</t>
+  </si>
+  <si>
+    <t>empfangen und parsen fertig gestellt, minor bugs gefixt</t>
+  </si>
+  <si>
+    <t>Parameteranpassung, Decimation aus sampleRate generieren
+Bug versucht nachzustellen, erfolglos</t>
+  </si>
+  <si>
+    <t>internes Meeting + Meeting mit Prof. Münch</t>
+  </si>
+  <si>
+    <t>reguläres internes Meeting</t>
+  </si>
+  <si>
+    <t>zusatzmeeting (erhöhter Bedarf nach Prüfungsphasenpause)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Meeting + testing</t>
-  </si>
-  <si>
-    <t>internes Meeting + codeanalyse</t>
-  </si>
-  <si>
-    <t>fixed strange npm error (dokumentiert aber unklar, was und wieso)</t>
-  </si>
-  <si>
-    <t>empfangen und parsen fertig gestellt, minor bugs gefixt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +158,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,20 +193,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -197,15 +211,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -224,7 +236,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,47 +535,47 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="18.75">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -576,26 +588,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="6">
         <v>44273</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>44274</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>7</v>
       </c>
       <c r="C6">
@@ -606,11 +618,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>44287</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
@@ -621,11 +633,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>44292</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
@@ -636,11 +648,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>44294</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
@@ -651,11 +663,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>44301</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
@@ -666,26 +678,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>44308</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C22" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C26" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>44315</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>4</v>
       </c>
       <c r="C12">
@@ -696,11 +708,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>44318</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
@@ -711,11 +723,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>44328</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
@@ -726,11 +738,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>44336</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
@@ -741,11 +753,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>44337</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
@@ -756,11 +768,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>44342</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
@@ -771,11 +783,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>44350</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18">
@@ -786,11 +798,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>44357</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
@@ -798,14 +810,14 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>44364</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
@@ -813,14 +825,14 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>44373</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
@@ -828,14 +840,14 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>44374</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>5</v>
       </c>
       <c r="C22">
@@ -843,87 +855,134 @@
         <v>63</v>
       </c>
       <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30">
+      <c r="A23" s="3">
+        <v>44377</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>44378</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>44406</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>44412</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="3"/>
-      <c r="B30"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="E33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="3"/>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C9866062-247D-428B-806A-F231CEA3B0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20598741-52C3-44AC-A483-C4A17286CEDF}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C9866062-247D-428B-806A-F231CEA3B0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7999AD4F-E625-4ACE-AF49-B6EC57897856}"/>
   <bookViews>
     <workbookView xWindow="32400" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Studenliste von Michael Schneider</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>zusatzmeeting (erhöhter Bedarf nach Prüfungsphasenpause)</t>
+  </si>
+  <si>
+    <t>Interface implementiert, cmake-file upgedated, testing</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -211,13 +214,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -535,7 +538,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -547,22 +550,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="4"/>
@@ -686,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C26" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C27" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
@@ -899,7 +902,7 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -914,12 +917,24 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3">
+        <v>44413</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3"/>
@@ -940,7 +955,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5">

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24331"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C9866062-247D-428B-806A-F231CEA3B0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7999AD4F-E625-4ACE-AF49-B6EC57897856}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92742F7E-4624-4D3B-838C-365B285E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32400" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Studenliste von Michael Schneider</t>
   </si>
@@ -130,13 +130,19 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Datenvalidierung und code cleanup</t>
+  </si>
+  <si>
+    <t>Bugfixen, testen, ProbeAttenuation einberechnen, debuggen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,10 +544,10 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -549,7 +555,7 @@
     <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -558,7 +564,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -567,14 +573,14 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -591,7 +597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44273</v>
       </c>
@@ -606,7 +612,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44274</v>
       </c>
@@ -621,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44287</v>
       </c>
@@ -636,7 +642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44292</v>
       </c>
@@ -651,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44294</v>
       </c>
@@ -666,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44301</v>
       </c>
@@ -681,7 +687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44308</v>
       </c>
@@ -689,14 +695,14 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C27" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C29" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44315</v>
       </c>
@@ -711,7 +717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44318</v>
       </c>
@@ -726,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44328</v>
       </c>
@@ -741,7 +747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44336</v>
       </c>
@@ -756,7 +762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44337</v>
       </c>
@@ -771,7 +777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44342</v>
       </c>
@@ -786,7 +792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44350</v>
       </c>
@@ -801,7 +807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44357</v>
       </c>
@@ -816,7 +822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44364</v>
       </c>
@@ -831,7 +837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44373</v>
       </c>
@@ -846,7 +852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44374</v>
       </c>
@@ -861,7 +867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44377</v>
       </c>
@@ -876,7 +882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44378</v>
       </c>
@@ -891,7 +897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44406</v>
       </c>
@@ -906,7 +912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44412</v>
       </c>
@@ -921,7 +927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44413</v>
       </c>
@@ -936,68 +942,92 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44418</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44420</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="E33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92742F7E-4624-4D3B-838C-365B285E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{92742F7E-4624-4D3B-838C-365B285E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B681D9-5379-4233-BA4E-39BB616E911F}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Studenliste von Michael Schneider</t>
   </si>
@@ -129,20 +129,26 @@
     <t>Interface implementiert, cmake-file upgedated, testing</t>
   </si>
   <si>
+    <t>Datenvalidierung und code cleanup</t>
+  </si>
+  <si>
+    <t>Bugfixen, testen, ProbeAttenuation einberechnen, debuggen</t>
+  </si>
+  <si>
+    <t>Bufixen, testen, debuggen (decimation änderungen)</t>
+  </si>
+  <si>
+    <t>Debugging session mit flo</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Datenvalidierung und code cleanup</t>
-  </si>
-  <si>
-    <t>Bugfixen, testen, ProbeAttenuation einberechnen, debuggen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +233,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,10 +553,10 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -555,7 +564,7 @@
     <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -564,7 +573,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -573,14 +582,14 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -597,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="6">
         <v>44273</v>
       </c>
@@ -612,7 +621,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>44274</v>
       </c>
@@ -627,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>44287</v>
       </c>
@@ -642,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>44292</v>
       </c>
@@ -657,7 +666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>44294</v>
       </c>
@@ -672,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>44301</v>
       </c>
@@ -687,7 +696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>44308</v>
       </c>
@@ -695,14 +704,14 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C29" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C31" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>44315</v>
       </c>
@@ -717,7 +726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>44318</v>
       </c>
@@ -732,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>44328</v>
       </c>
@@ -747,7 +756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>44336</v>
       </c>
@@ -762,7 +771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>44337</v>
       </c>
@@ -777,7 +786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>44342</v>
       </c>
@@ -792,7 +801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>44350</v>
       </c>
@@ -807,7 +816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>44357</v>
       </c>
@@ -822,7 +831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>44364</v>
       </c>
@@ -837,7 +846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>44373</v>
       </c>
@@ -852,7 +861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>44374</v>
       </c>
@@ -867,7 +876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" s="3">
         <v>44377</v>
       </c>
@@ -882,7 +891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>44378</v>
       </c>
@@ -897,7 +906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>44406</v>
       </c>
@@ -912,7 +921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>44412</v>
       </c>
@@ -927,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>44413</v>
       </c>
@@ -942,7 +951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>44418</v>
       </c>
@@ -954,10 +963,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>44420</v>
       </c>
@@ -969,65 +978,88 @@
         <v>83</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>44424</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>44427</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="E33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="3"/>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{92742F7E-4624-4D3B-838C-365B285E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B681D9-5379-4233-BA4E-39BB616E911F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{92742F7E-4624-4D3B-838C-365B285E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD5C24A-E1FF-45CD-906C-CDB6965B5B1F}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Studenliste von Michael Schneider</t>
   </si>
@@ -141,7 +141,16 @@
     <t>Debugging session mit flo</t>
   </si>
   <si>
+    <t>updated RP, setup Raspberry für Tests, Update Libsigrok</t>
+  </si>
+  <si>
+    <t>debugging decoder, acquisition tests mit Raspberry</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>debugging testing, dokumentieren von Bugs</t>
   </si>
 </sst>
 </file>
@@ -208,9 +217,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -227,14 +233,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +562,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -565,29 +574,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
@@ -607,16 +616,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>44273</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1"/>
@@ -704,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C31" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C34" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
@@ -887,7 +896,7 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -917,7 +926,7 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -932,7 +941,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -947,7 +956,7 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -962,7 +971,7 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -977,7 +986,7 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -992,7 +1001,7 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1007,21 +1016,57 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3">
+        <v>44434</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>44435</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3">
+        <v>44439</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{92742F7E-4624-4D3B-838C-365B285E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD5C24A-E1FF-45CD-906C-CDB6965B5B1F}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{92742F7E-4624-4D3B-838C-365B285E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5E58EB-D100-40DE-BEFB-35084F4D29F6}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Studenliste von Michael Schneider</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>debugging testing, dokumentieren von Bugs</t>
+  </si>
+  <si>
+    <t>debugging session</t>
+  </si>
+  <si>
+    <t>debugging, libsigrok hat probleme mit Python</t>
+  </si>
+  <si>
+    <t>Libsigrok zum laufen bekommen aber noch falsche Ergbenisse</t>
+  </si>
+  <si>
+    <t>richtige ERgebnisse mit Testdaten, tests mit Raspberry</t>
   </si>
 </sst>
 </file>
@@ -233,11 +245,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -592,11 +604,11 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
@@ -713,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C34" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C38" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
@@ -1001,7 +1013,7 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1069,16 +1081,64 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3">
+        <v>44440</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3">
+        <v>44441</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3">
+        <v>44442</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3">
+        <v>44443</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/477ec295378db8c3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{92742F7E-4624-4D3B-838C-365B285E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5E58EB-D100-40DE-BEFB-35084F4D29F6}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{92742F7E-4624-4D3B-838C-365B285E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B7316FC-087F-4F21-AB6E-BB9DF1D5866A}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Studenliste von Michael Schneider</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Projekt Redpitaya Oszilloskop</t>
   </si>
@@ -162,14 +159,20 @@
     <t>Libsigrok zum laufen bekommen aber noch falsche Ergbenisse</t>
   </si>
   <si>
-    <t>richtige ERgebnisse mit Testdaten, tests mit Raspberry</t>
+    <t>richtige Ergebnisse mit Testdaten, tests mit Raspberry</t>
+  </si>
+  <si>
+    <t>cleanUp Code, fixed Decoder/Acquierer zusammenarbeit</t>
+  </si>
+  <si>
+    <t>Stundenliste von Michael Schneider</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,7 +278,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -573,11 +576,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -585,49 +588,49 @@
     <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44273</v>
       </c>
@@ -638,11 +641,11 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44274</v>
       </c>
@@ -654,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44287</v>
       </c>
@@ -669,10 +672,10 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44292</v>
       </c>
@@ -684,10 +687,10 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44294</v>
       </c>
@@ -699,10 +702,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44301</v>
       </c>
@@ -714,10 +717,10 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44308</v>
       </c>
@@ -725,14 +728,14 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C38" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C39" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44315</v>
       </c>
@@ -744,10 +747,10 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44318</v>
       </c>
@@ -759,10 +762,10 @@
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44328</v>
       </c>
@@ -774,10 +777,10 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44336</v>
       </c>
@@ -789,10 +792,10 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44337</v>
       </c>
@@ -804,10 +807,10 @@
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44342</v>
       </c>
@@ -819,10 +822,10 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44350</v>
       </c>
@@ -834,10 +837,10 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44357</v>
       </c>
@@ -849,10 +852,10 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44364</v>
       </c>
@@ -864,10 +867,10 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44373</v>
       </c>
@@ -879,10 +882,10 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44374</v>
       </c>
@@ -894,10 +897,10 @@
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44377</v>
       </c>
@@ -909,10 +912,10 @@
         <v>66</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44378</v>
       </c>
@@ -924,10 +927,10 @@
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44406</v>
       </c>
@@ -939,10 +942,10 @@
         <v>69</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44412</v>
       </c>
@@ -954,10 +957,10 @@
         <v>70</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44413</v>
       </c>
@@ -969,10 +972,10 @@
         <v>73</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44418</v>
       </c>
@@ -984,10 +987,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44420</v>
       </c>
@@ -999,10 +1002,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44424</v>
       </c>
@@ -1014,10 +1017,10 @@
         <v>85</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44427</v>
       </c>
@@ -1029,10 +1032,10 @@
         <v>89</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44434</v>
       </c>
@@ -1044,10 +1047,10 @@
         <v>95</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44435</v>
       </c>
@@ -1059,13 +1062,13 @@
         <v>99</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
         <v>35</v>
       </c>
-      <c r="E33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44439</v>
       </c>
@@ -1077,10 +1080,10 @@
         <v>103</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44440</v>
       </c>
@@ -1092,10 +1095,10 @@
         <v>106</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44441</v>
       </c>
@@ -1107,10 +1110,10 @@
         <v>113</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44442</v>
       </c>
@@ -1122,10 +1125,10 @@
         <v>119</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44443</v>
       </c>
@@ -1137,34 +1140,46 @@
         <v>122</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44445</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/477ec295378db8c3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OTH\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{92742F7E-4624-4D3B-838C-365B285E10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B7316FC-087F-4F21-AB6E-BB9DF1D5866A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2D8E7-1433-45E0-B7F3-5CB2CE654BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Projekt Redpitaya Oszilloskop</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>Stundenliste von Michael Schneider</t>
+  </si>
+  <si>
+    <t>internes meeting</t>
+  </si>
+  <si>
+    <t>Dokumentation, tests</t>
+  </si>
+  <si>
+    <t>Klassendiagramm gecheckt und updated</t>
   </si>
 </sst>
 </file>
@@ -576,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C39" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C42" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
@@ -1159,13 +1168,49 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="3">
+        <v>44445</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="3">
+        <v>44446</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3">
+        <v>44448</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\OTH\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2D8E7-1433-45E0-B7F3-5CB2CE654BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C566E5-0248-417F-943D-9F51A5A7C9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Projekt Redpitaya Oszilloskop</t>
   </si>
@@ -174,7 +174,13 @@
     <t>Dokumentation, tests</t>
   </si>
   <si>
-    <t>Klassendiagramm gecheckt und updated</t>
+    <t>Klassendiagramm gecheckt und updated, Video, Meeting</t>
+  </si>
+  <si>
+    <t>Feedback in Videos eingearbeitet</t>
+  </si>
+  <si>
+    <t>Beginn Präsentationserstellung</t>
   </si>
 </sst>
 </file>
@@ -585,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C42" si="0">C10+B11</f>
+        <f t="shared" ref="C11:C44" si="0">C10+B11</f>
         <v>28</v>
       </c>
       <c r="D11" t="s">
@@ -1202,21 +1208,45 @@
         <v>44448</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3">
+        <v>44449</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3">
+        <v>44459</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>

--- a/stundenlisten/Stundenliste-MichaelSchneider.xlsx
+++ b/stundenlisten/Stundenliste-MichaelSchneider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C566E5-0248-417F-943D-9F51A5A7C9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3DA8E2-FB1E-4DAB-A36D-035F83F3C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="2745" yWindow="2730" windowWidth="21585" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Projekt Redpitaya Oszilloskop</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Beginn Präsentationserstellung</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
   </si>
 </sst>
 </file>
@@ -290,6 +293,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3990975</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>46072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE576CD3-0452-49D8-823E-5EB951D8E1E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="8896350"/>
+          <a:ext cx="1104900" cy="360397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,10 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F46" sqref="A1:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +661,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1249,7 +1310,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3">
+        <v>44460</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <f>C44+B45</f>
+        <v>141</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
@@ -1263,6 +1336,7 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>